--- a/meta.xlsx
+++ b/meta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12804" windowHeight="6588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="5784"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Conventions</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Data usage licence - UK Government Open Licence agreement: http://www.nationalarchives.gov.uk/doc/open-government-licence</t>
   </si>
   <si>
-    <t>not known</t>
-  </si>
-  <si>
     <t>stationary_platform</t>
   </si>
   <si>
@@ -168,12 +165,6 @@
   </si>
   <si>
     <t>land</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>1 minute</t>
   </si>
   <si>
     <t>Not known</t>
@@ -203,16 +194,10 @@
     <t>ness-aws-1</t>
   </si>
   <si>
-    <t>ness-hand-obs</t>
-  </si>
-  <si>
     <t>CF-1.6</t>
   </si>
   <si>
     <t>Ness Gardens Automatic Weather Station unit 1</t>
-  </si>
-  <si>
-    <t>Ness Gardens Hand Observations</t>
   </si>
   <si>
     <t>Not Applicable</t>
@@ -222,12 +207,6 @@
   </si>
   <si>
     <t>Not Known</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>point measurement</t>
   </si>
   <si>
     <t>University of Liverpool Botanical Gardens (Ness) Long-Term Monitoring</t>
@@ -242,9 +221,6 @@
     <t>Time series of 5 minute averages of surface meteorology parameters.</t>
   </si>
   <si>
-    <t>Time series of daily hand made observations of surface meteorology parameters.</t>
-  </si>
-  <si>
     <t>53.2708N -3.0467E</t>
   </si>
   <si>
@@ -254,16 +230,28 @@
     <t>ness gardens, ness, wirral, uk</t>
   </si>
   <si>
-    <t>Measurements taken and logged manually on date stated. Digitised December 2020</t>
-  </si>
-  <si>
     <t>Measurements taken automatically on date stated. Processed and quality controlled December 2020</t>
   </si>
   <si>
-    <t>Wind Speed and wind direction, air temperature, humidity and pressure sensors mounted at 5m. Leaf wetness &amp; Temperature sensor 1 mounted at 30cm. Leaf wetness &amp; Temperature Sensor 2: mounted at 1m. Soil temperature sensor 1 at ?? below surface, Soil temperature sensor 2 at ?? below surface, Soil temperature sensor 3 at ?? below surface, Soil temperature sensor 4 at ?? below surface. Soil moisture sensor 1 at ?? below surface, Soil moisture sensor 2 at ?? below surface, Soil moisture sensor 3 at ?? below surface, Soil moisture sensor 4 at ?? below surface,</t>
+    <t>WeatherLink</t>
   </si>
   <si>
-    <t>Temperature sensors in a Stephenson Screen 1m above ground. Wind Speed and direction sensors at 2m. Grass temperature, concrete and baresoil senors on surface on radiation shielding. Additional soil temperature sensors at 10cm, 20cm and 30cm depths.</t>
+    <t>https://github.com/barbarabrooks/ness-gardens</t>
+  </si>
+  <si>
+    <t>Nicholas.Lightfoot@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Nicholas Lightfoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind speed and wind direction, air temperature, humidity, rain, and pressure sensors mounted at 5m. Leaf wetness &amp; temperature sensor 1 mounted at 50cm. Leaf wetness &amp; temperature Sensor 2: mounted at 2m. Soil temperature sensor 1: bare concrete, Soil temperature sensor 2: grass temperature, Soil temperature sensor 3: bare soil, Soil temperature sensor 4: 10cm below grassed surface. Soil moisture sensor 1: 10cm below grassed surface, Soil moisture sensor 2: 20cm below grassed surface, Soil moisture sensor 3: 30cm below grassed surface below surface, Soil moisture sensor 4: 50cm below grassed surface. Note that UV irradiance is CIE weighted and is converted from UV-index that is reported by the instrument. UV index = CIE weighted UV-irradiance (Wm-2) * 40 (W-1 m2). http://strang.smhi.se/extraction/units-conversion.html. </t>
+  </si>
+  <si>
+    <t>Pressure (Range: 540 - 1100hPa, Resolution: 0.1hPa, Accuract: 1hPa). Humidity (Range: 1 - 100%, Resolution: 1%, Accuracy: 2%), Air Temperature (Range: -40C - 65C. Resolution: 0.1C, Accuracy: 0.3C), Wind Speed (Range: 0 - 89 ms-1, Resolution: 0.4 ms-1, Accuracy: 0.9 ms-1), Wind From Direction (Range: 1 - 360, Resolution: 22.5, Accuracy: 3%), Accumulated Rain (Range: 0 - 999.8mm, Resolution: 0.2mm, Accuracy: 0.2mm for Rainrate &lt; 250mm hr-1, 3% otherwise), Rainrate (0 - 762 mm hr-1, Resolution: 0.1 mm hr-1, Accuracy: 5% up to 250 mm hr-1, 3% othersize), Soil Temperature (Range: -40C - 65C. Resolution: 0.1C, Accuracy: 0.3C), Soil Moisture (Range: 0 - 200, Resolution: 1, Accuracy: 0.5), Leaf Temperature (Range: -40C - 65C. Resolution: 0.1C, Accuracy: 0.3C), Leaf Wetness (Range: 0 - 15, Resolution: 1, Accuracy: 0.5), Solar Radiation (Range: 0 1800Wm-2, Resolution: 1Wm-2, Accuracy: 5%), UV (Range: 0 1800Wm-2, Resolution: 1Wm-2, Accuracy: 5%).</t>
   </si>
 </sst>
 </file>
@@ -439,7 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -609,15 +597,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -944,10 +935,10 @@
   <dimension ref="A1:AO896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ2" sqref="AJ2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1093,220 +1084,147 @@
       </c>
     </row>
     <row r="2" spans="1:41" s="46" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>57</v>
+      <c r="A2" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>55</v>
-      </c>
       <c r="K2" s="51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="52" t="s">
+        <v>69</v>
+      </c>
       <c r="N2" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
-      <c r="P2" s="53" t="s">
-        <v>47</v>
+      <c r="P2" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="Q2" s="53" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="R2" s="46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T2" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U2" s="46">
         <v>1</v>
       </c>
-      <c r="W2" s="60" t="s">
-        <v>67</v>
+      <c r="W2" s="59" t="s">
+        <v>60</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="51"/>
+      <c r="X2" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="AA2" s="42" t="s">
         <v>42</v>
       </c>
       <c r="AB2" s="49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="46" t="s">
-        <v>45</v>
-      </c>
       <c r="AJ2" s="46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AK2" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="49" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="3" spans="1:41" s="46" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>41</v>
-      </c>
+      <c r="A3" s="58"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="51"/>
       <c r="M3" s="52"/>
-      <c r="N3" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="46">
-        <v>1</v>
-      </c>
-      <c r="W3" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="57"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="53"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="54"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM3" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" s="49" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="49"/>
+      <c r="AF3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
     </row>
     <row r="4" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
@@ -1343,7 +1261,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
-      <c r="AC7" s="58"/>
+      <c r="AC7" s="57"/>
     </row>
     <row r="8" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -9360,7 +9278,7 @@
   </customSheetViews>
   <hyperlinks>
     <hyperlink ref="AA2" r:id="rId1"/>
-    <hyperlink ref="AA3" r:id="rId2"/>
+    <hyperlink ref="Y2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/meta.xlsx
+++ b/meta.xlsx
@@ -935,10 +935,10 @@
   <dimension ref="A1:AO896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1083,8 +1083,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="46" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:41" s="46" customFormat="1" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
